--- a/deliverables/product burndown.xlsx
+++ b/deliverables/product burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
       <t>1.</t>
@@ -780,7 +780,10 @@
     <t>articles</t>
   </si>
   <si>
-    <t>Total Effort</t>
+    <t>final sprint</t>
+  </si>
+  <si>
+    <t>Total Effort left</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E43"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1134,9 +1137,10 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="36" customHeight="1">
+    <row r="1" spans="2:6" ht="36" customHeight="1">
       <c r="C1" t="s">
         <v>31</v>
       </c>
@@ -1146,8 +1150,11 @@
       <c r="E1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +1164,11 @@
       <c r="D3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,8 +1178,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1179,8 +1192,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1206,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +1220,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="D9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,8 +1248,11 @@
       <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1234,8 +1262,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1276,11 @@
       <c r="D14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,8 +1307,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1321,11 @@
       <c r="D17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,8 +1346,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1360,11 @@
       <c r="D20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,8 +1374,11 @@
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1336,8 +1388,11 @@
       <c r="D22">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,8 +1402,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,8 +1419,11 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,8 +1433,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1383,8 +1447,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1394,8 +1461,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1405,8 +1475,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1416,8 +1489,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1503,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1438,8 +1517,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,8 +1531,11 @@
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1460,8 +1545,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1471,8 +1559,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1485,8 +1576,11 @@
       <c r="E39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1496,10 +1590,13 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <f>SUM(C3:C40)</f>
@@ -1508,6 +1605,10 @@
       <c r="D43">
         <f>SUM(D3:D40)</f>
         <v>71</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F3:F40)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/deliverables/product burndown.xlsx
+++ b/deliverables/product burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <r>
       <t>1.</t>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>Total Effort left</t>
+  </si>
+  <si>
+    <t>outcome</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F43"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,7 +1143,7 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="36" customHeight="1">
+    <row r="1" spans="2:7" ht="36" customHeight="1">
       <c r="C1" t="s">
         <v>31</v>
       </c>
@@ -1153,8 +1156,11 @@
       <c r="F1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1173,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,8 +1190,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,8 +1207,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1224,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,8 +1241,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1237,8 +1258,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1251,8 +1275,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1292,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1279,8 +1309,11 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1346,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1324,8 +1363,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1335,8 +1377,14 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,8 +1397,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1363,8 +1414,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1377,8 +1431,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,8 +1465,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1422,8 +1485,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1436,8 +1502,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1450,8 +1519,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1464,8 +1536,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1478,8 +1553,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1492,8 +1570,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,8 +1587,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1520,8 +1604,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,8 +1621,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1548,8 +1638,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1562,8 +1655,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1579,8 +1675,11 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1593,8 +1692,11 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,6 +1711,10 @@
       <c r="F43">
         <f>SUM(F3:F40)</f>
         <v>7</v>
+      </c>
+      <c r="G43">
+        <f>SUM(G3:G40)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
